--- a/medicine/Sexualité et sexologie/Sliver_(film)/Sliver_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Sliver_(film)/Sliver_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sliver est un thriller érotique américain réalisé par Phillip Noyce et sorti en 1993. Il s'agit d'une adaptation du roman du même nom (en) d'Ira Levin publié en 1991.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carly Norris (Sharon Stone), 35 ans, jeune directrice dans l'édition, récemment divorcée, cherche à refaire sa vie. Elle emménage à New York dans un immeuble dernier cri.
 Elle y fait la connaissance de Vida Warren (Polly Walker), sa voisine de palier, de Gus Hale (Keene Curtis), professeur d'université, de Jack Lansford (Tom Berenger), écrivain en mal d'inspiration, et de Zeke Hawkins (William Baldwin), jeune concepteur de jeux vidéo.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Sliver
 Réalisation : Phillip Noyce
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sharon Stone (VF : Béatrice Agenin) : Carla "Carly" Norris
 William Baldwin (VF : Jean-Philippe Puymartin) : Zeke Hawkins
@@ -638,10 +656,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joe Eszterhas, scénariste de Basic Instinct, adapte ici le roman d'Ira Levin publié en 1991. Il retrouve par ailleurs Sharon Stone. L'actrice avouera après coup regretter d'avoir joué dans le film[1].
-Le tournage a lieu à New York (Morgan Court sur Madison Avenue, Park Avenue) ainsi qu'aux Sunset Gower Studios à Los Angeles[2]. Sur le tournage, les relations entre Sharon Stone et William Baldwin, les deux acteurs principaux, étaient très houleuses[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joe Eszterhas, scénariste de Basic Instinct, adapte ici le roman d'Ira Levin publié en 1991. Il retrouve par ailleurs Sharon Stone. L'actrice avouera après coup regretter d'avoir joué dans le film.
+Le tournage a lieu à New York (Morgan Court sur Madison Avenue, Park Avenue) ainsi qu'aux Sunset Gower Studios à Los Angeles. Sur le tournage, les relations entre Sharon Stone et William Baldwin, les deux acteurs principaux, étaient très houleuses.
 </t>
         </is>
       </c>
@@ -671,6 +691,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,9 +718,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réception du public sera plutôt tiède aux Etats-Unis puisque le film engendre 36 millions de dollars de recettes, ne couvrant ainsi pas son budget de 40 millions de dollars. L'exploitation à l'étranger sera en revanche bien plus fructueuse avec 80 millions de dollars dans les caisses de la Paramount[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réception du public sera plutôt tiède aux Etats-Unis puisque le film engendre 36 millions de dollars de recettes, ne couvrant ainsi pas son budget de 40 millions de dollars. L'exploitation à l'étranger sera en revanche bien plus fructueuse avec 80 millions de dollars dans les caisses de la Paramount.
 La critique sera en revanche peu tendre avec le film[réf. nécessaire] et il aura droit à plusieurs nominations aux Razzie Awards 1994.
 </t>
         </is>
@@ -728,7 +752,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Nommé aux Razzie Awards 1994 dans sept catégories :
 Pire film
@@ -765,7 +791,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film a été parodié dans un des épisodes des Simpsons, L'Héritier de Burns, 18e épisode de la 5e saison.
 </t>
